--- a/data/trans_orig/P43D-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P43D-Provincia-trans_orig.xlsx
@@ -624,19 +624,19 @@
         <v>27888</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18894</v>
+        <v>18524</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>38357</v>
+        <v>38571</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1907109438279785</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1292019624767174</v>
+        <v>0.1266750615212017</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2622973278469208</v>
+        <v>0.2637629742183837</v>
       </c>
     </row>
     <row r="5">
@@ -653,19 +653,19 @@
         <v>50444</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>38633</v>
+        <v>39583</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>61069</v>
+        <v>63119</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3449558556030487</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2641853540246358</v>
+        <v>0.2706838984950002</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4176121877155932</v>
+        <v>0.4316318275536287</v>
       </c>
     </row>
     <row r="6">
@@ -682,19 +682,19 @@
         <v>35379</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>26138</v>
+        <v>25386</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>48333</v>
+        <v>48159</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2419319883905849</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1787414156165922</v>
+        <v>0.1735964752584875</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3305197098278855</v>
+        <v>0.3293270388388884</v>
       </c>
     </row>
     <row r="7">
@@ -711,19 +711,19 @@
         <v>32523</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>23324</v>
+        <v>22630</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>44318</v>
+        <v>42661</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2224012121783879</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1594960542446212</v>
+        <v>0.1547506517366085</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3030589961782443</v>
+        <v>0.2917280867147406</v>
       </c>
     </row>
     <row r="8">
@@ -773,19 +773,19 @@
         <v>78146</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>65711</v>
+        <v>64331</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>93784</v>
+        <v>93888</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2896653227601505</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2435715760695959</v>
+        <v>0.2384559863190923</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3476308377382106</v>
+        <v>0.348016960106509</v>
       </c>
     </row>
     <row r="10">
@@ -802,19 +802,19 @@
         <v>75958</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>61350</v>
+        <v>62073</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>90646</v>
+        <v>90816</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2815547700020841</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.227409184137945</v>
+        <v>0.2300886148736672</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.336001151617442</v>
+        <v>0.3366316730414013</v>
       </c>
     </row>
     <row r="11">
@@ -831,19 +831,19 @@
         <v>78351</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>64542</v>
+        <v>63944</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>94067</v>
+        <v>93826</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2904263124804219</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2392391134032987</v>
+        <v>0.2370236099973371</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3486786788110061</v>
+        <v>0.3477856052586145</v>
       </c>
     </row>
     <row r="12">
@@ -860,19 +860,19 @@
         <v>37325</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>26681</v>
+        <v>27236</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>51261</v>
+        <v>49544</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1383535947573436</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0988977634768166</v>
+        <v>0.1009548503589728</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1900097138111219</v>
+        <v>0.1836468670286024</v>
       </c>
     </row>
     <row r="13">
@@ -922,19 +922,19 @@
         <v>44566</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>33102</v>
+        <v>34715</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>56905</v>
+        <v>57640</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2369314744907485</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.175981332155869</v>
+        <v>0.1845616609902455</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3025291578156553</v>
+        <v>0.3064384992639177</v>
       </c>
     </row>
     <row r="15">
@@ -951,19 +951,19 @@
         <v>69294</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>56657</v>
+        <v>56749</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>82272</v>
+        <v>82134</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3683971033026365</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3012118194384525</v>
+        <v>0.3016987373351886</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4373890339759049</v>
+        <v>0.4366599088632105</v>
       </c>
     </row>
     <row r="16">
@@ -980,19 +980,19 @@
         <v>41008</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>31182</v>
+        <v>30820</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>52664</v>
+        <v>52749</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2180167176752431</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1657773083351889</v>
+        <v>0.1638535607604117</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2799835629953445</v>
+        <v>0.2804325489363317</v>
       </c>
     </row>
     <row r="17">
@@ -1009,19 +1009,19 @@
         <v>33228</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>23799</v>
+        <v>23054</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>46023</v>
+        <v>44650</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1766547045313719</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1265276910862228</v>
+        <v>0.1225635879239117</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2446752015336292</v>
+        <v>0.2373784875140336</v>
       </c>
     </row>
     <row r="18">
@@ -1071,19 +1071,19 @@
         <v>56765</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>45189</v>
+        <v>45685</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>70004</v>
+        <v>71710</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2726255190672723</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2170285322306908</v>
+        <v>0.219412469027069</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3362070066038707</v>
+        <v>0.3444042288565562</v>
       </c>
     </row>
     <row r="20">
@@ -1100,19 +1100,19 @@
         <v>54387</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>43274</v>
+        <v>42508</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>68573</v>
+        <v>67283</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2612040038515841</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2078337471240406</v>
+        <v>0.2041552343914499</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3293367030313338</v>
+        <v>0.3231411769788362</v>
       </c>
     </row>
     <row r="21">
@@ -1129,19 +1129,19 @@
         <v>58321</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>46201</v>
+        <v>45990</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>71930</v>
+        <v>70409</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2800990292843576</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2218898490072359</v>
+        <v>0.2208782143748798</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3454573345990933</v>
+        <v>0.3381535898057737</v>
       </c>
     </row>
     <row r="22">
@@ -1158,19 +1158,19 @@
         <v>38743</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>28627</v>
+        <v>28765</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>51194</v>
+        <v>49995</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.186071447796786</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1374847564270648</v>
+        <v>0.1381492496916757</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2458686770831265</v>
+        <v>0.2401104487588085</v>
       </c>
     </row>
     <row r="23">
@@ -1220,19 +1220,19 @@
         <v>15122</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8585</v>
+        <v>8759</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>23677</v>
+        <v>22699</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1782962036209394</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1012207099150047</v>
+        <v>0.103276589198972</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2791659429718508</v>
+        <v>0.267635562910966</v>
       </c>
     </row>
     <row r="25">
@@ -1249,19 +1249,19 @@
         <v>28606</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>20503</v>
+        <v>20599</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>38864</v>
+        <v>37866</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3372886157334039</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2417422266708318</v>
+        <v>0.2428724952302535</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4582347059958983</v>
+        <v>0.4464655559115647</v>
       </c>
     </row>
     <row r="26">
@@ -1278,19 +1278,19 @@
         <v>19152</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>12351</v>
+        <v>12442</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>28172</v>
+        <v>28650</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2258149917363043</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1456240055814655</v>
+        <v>0.1466992805286599</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3321672549209199</v>
+        <v>0.3378027720472229</v>
       </c>
     </row>
     <row r="27">
@@ -1307,19 +1307,19 @@
         <v>21932</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>14115</v>
+        <v>15123</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>31245</v>
+        <v>31399</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2586001889093524</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1664244650491845</v>
+        <v>0.1783156903171261</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3684062723444216</v>
+        <v>0.3702181945411493</v>
       </c>
     </row>
     <row r="28">
@@ -1369,19 +1369,19 @@
         <v>39191</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>29555</v>
+        <v>29745</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>51259</v>
+        <v>49461</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3077057902833366</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2320477031023953</v>
+        <v>0.2335410720905025</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4024613239211429</v>
+        <v>0.388340528998076</v>
       </c>
     </row>
     <row r="30">
@@ -1398,19 +1398,19 @@
         <v>34404</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>25446</v>
+        <v>25201</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>45152</v>
+        <v>45048</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2701180284804621</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1997855758374016</v>
+        <v>0.1978626964938775</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3545122376802705</v>
+        <v>0.3536914692358546</v>
       </c>
     </row>
     <row r="31">
@@ -1427,19 +1427,19 @@
         <v>29246</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>20256</v>
+        <v>19836</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>38821</v>
+        <v>39435</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2296202832312063</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1590399958592648</v>
+        <v>0.1557419643221518</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3048002967043676</v>
+        <v>0.3096241256343976</v>
       </c>
     </row>
     <row r="32">
@@ -1456,19 +1456,19 @@
         <v>24525</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>17127</v>
+        <v>16969</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>33930</v>
+        <v>34872</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.192555898004995</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1344741818499844</v>
+        <v>0.1332275937425082</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2663957933370582</v>
+        <v>0.2737992136743786</v>
       </c>
     </row>
     <row r="33">
@@ -1518,19 +1518,19 @@
         <v>93556</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>77078</v>
+        <v>77631</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>110502</v>
+        <v>111695</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2340952113765859</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1928649213952905</v>
+        <v>0.1942495015077677</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2764989340270025</v>
+        <v>0.2794839872989056</v>
       </c>
     </row>
     <row r="35">
@@ -1547,19 +1547,19 @@
         <v>116416</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>96709</v>
+        <v>99073</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>133241</v>
+        <v>133945</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2912970401335991</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2419863503742999</v>
+        <v>0.2479003997653747</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3333951965238763</v>
+        <v>0.335158626260343</v>
       </c>
     </row>
     <row r="36">
@@ -1576,19 +1576,19 @@
         <v>109971</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>93235</v>
+        <v>93202</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>129100</v>
+        <v>128835</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2751690545366648</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2332916136400722</v>
+        <v>0.2332105275389126</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3230335028243619</v>
+        <v>0.3223703929062038</v>
       </c>
     </row>
     <row r="37">
@@ -1605,19 +1605,19 @@
         <v>79705</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>66865</v>
+        <v>65292</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>97464</v>
+        <v>98338</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1994386939531503</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1673090845984677</v>
+        <v>0.1633725877177409</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2438743634515189</v>
+        <v>0.2460603400091983</v>
       </c>
     </row>
     <row r="38">
@@ -1667,19 +1667,19 @@
         <v>66306</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>51805</v>
+        <v>53165</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>81636</v>
+        <v>83262</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.1867996781441512</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1459461786994515</v>
+        <v>0.1497786176006181</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2299871920721154</v>
+        <v>0.2345703087685198</v>
       </c>
     </row>
     <row r="40">
@@ -1696,19 +1696,19 @@
         <v>124544</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>106777</v>
+        <v>106711</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>143846</v>
+        <v>142916</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.3508715993826569</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.3008169800173401</v>
+        <v>0.3006303798532126</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.4052480573186433</v>
+        <v>0.4026287217757256</v>
       </c>
     </row>
     <row r="41">
@@ -1725,19 +1725,19 @@
         <v>100253</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>84245</v>
+        <v>83605</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>119172</v>
+        <v>117267</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.282436301534132</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2373376702231943</v>
+        <v>0.235535917103486</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3357367714129276</v>
+        <v>0.3303683669307816</v>
       </c>
     </row>
     <row r="42">
@@ -1754,19 +1754,19 @@
         <v>63854</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>50212</v>
+        <v>50933</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>80304</v>
+        <v>81585</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1798924209390599</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1414596597660193</v>
+        <v>0.1434905199519446</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2262352591553777</v>
+        <v>0.2298454350971822</v>
       </c>
     </row>
     <row r="43">
@@ -1816,19 +1816,19 @@
         <v>421540</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>385495</v>
+        <v>386350</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>457917</v>
+        <v>459724</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2369385911157015</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2166787100121388</v>
+        <v>0.2171595389119526</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2573853971836931</v>
+        <v>0.2584010304659555</v>
       </c>
     </row>
     <row r="45">
@@ -1845,19 +1845,19 @@
         <v>554054</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>515162</v>
+        <v>512638</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>591369</v>
+        <v>593794</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.3114219939752454</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.2895619651179152</v>
+        <v>0.2881429094966899</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.3323963876632391</v>
+        <v>0.3337591503472575</v>
       </c>
     </row>
     <row r="46">
@@ -1874,19 +1874,19 @@
         <v>471680</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>438420</v>
+        <v>434717</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>512528</v>
+        <v>508739</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.2651215787801384</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.2464266305844757</v>
+        <v>0.2443452863253578</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.2880812473869181</v>
+        <v>0.285951616626042</v>
       </c>
     </row>
     <row r="47">
@@ -1903,19 +1903,19 @@
         <v>331836</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>299937</v>
+        <v>301357</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>364391</v>
+        <v>366339</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1865178361289147</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1685883874098451</v>
+        <v>0.1693864688288932</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2048163756879579</v>
+        <v>0.2059117492295763</v>
       </c>
     </row>
     <row r="48">
@@ -2087,19 +2087,19 @@
         <v>37262</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>26473</v>
+        <v>26875</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>51665</v>
+        <v>51050</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1855661329905369</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1318358585348148</v>
+        <v>0.1338360022633372</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2572915435582225</v>
+        <v>0.2542293557722616</v>
       </c>
     </row>
     <row r="5">
@@ -2116,19 +2116,19 @@
         <v>45457</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>34180</v>
+        <v>32848</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>59809</v>
+        <v>58348</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2263754593654802</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1702152217844538</v>
+        <v>0.1635860109613239</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2978483683717624</v>
+        <v>0.2905742793945817</v>
       </c>
     </row>
     <row r="6">
@@ -2145,19 +2145,19 @@
         <v>77757</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>63030</v>
+        <v>63158</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>93336</v>
+        <v>93594</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3872323900095089</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3138916877937623</v>
+        <v>0.3145286230761289</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4648149427519042</v>
+        <v>0.4660995570374908</v>
       </c>
     </row>
     <row r="7">
@@ -2174,19 +2174,19 @@
         <v>40326</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>29070</v>
+        <v>29030</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>53067</v>
+        <v>53396</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.200826017634474</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1447697291743185</v>
+        <v>0.1445712716378442</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2642755091215173</v>
+        <v>0.2659160546538982</v>
       </c>
     </row>
     <row r="8">
@@ -2236,19 +2236,19 @@
         <v>72613</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>58929</v>
+        <v>59058</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>89554</v>
+        <v>90382</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1914481933518319</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1553715926782393</v>
+        <v>0.1557097547719431</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2361162307393058</v>
+        <v>0.238299310623405</v>
       </c>
     </row>
     <row r="10">
@@ -2265,19 +2265,19 @@
         <v>120374</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>103306</v>
+        <v>101421</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>142368</v>
+        <v>138147</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3173746930712627</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2723725448210377</v>
+        <v>0.2674038224602618</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3753637237619704</v>
+        <v>0.3642340581700729</v>
       </c>
     </row>
     <row r="11">
@@ -2294,19 +2294,19 @@
         <v>111131</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>94055</v>
+        <v>93347</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>130273</v>
+        <v>129520</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2930032076570195</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2479811038321714</v>
+        <v>0.2461158498859438</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3434741063583713</v>
+        <v>0.341489339474721</v>
       </c>
     </row>
     <row r="12">
@@ -2323,19 +2323,19 @@
         <v>75164</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>60746</v>
+        <v>58918</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>93300</v>
+        <v>91621</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1981739059198859</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.160159762408267</v>
+        <v>0.1553401652284348</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2459922155859606</v>
+        <v>0.2415649049855463</v>
       </c>
     </row>
     <row r="13">
@@ -2385,19 +2385,19 @@
         <v>35259</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>24480</v>
+        <v>25377</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>47134</v>
+        <v>48497</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1830973014361305</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1271237545166076</v>
+        <v>0.1317814600568306</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2447597800230333</v>
+        <v>0.2518390709560261</v>
       </c>
     </row>
     <row r="15">
@@ -2414,19 +2414,19 @@
         <v>79424</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>66606</v>
+        <v>64676</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>94775</v>
+        <v>93745</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.4124410230760596</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3458784730182676</v>
+        <v>0.3358528965035306</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4921561868704247</v>
+        <v>0.4868094573004837</v>
       </c>
     </row>
     <row r="16">
@@ -2443,19 +2443,19 @@
         <v>44210</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>32041</v>
+        <v>33723</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>56479</v>
+        <v>57825</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2295778550912663</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1663849075696523</v>
+        <v>0.1751195329418448</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2932867989977258</v>
+        <v>0.3002781300151253</v>
       </c>
     </row>
     <row r="17">
@@ -2472,19 +2472,19 @@
         <v>33678</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>23293</v>
+        <v>23491</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>45798</v>
+        <v>47220</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1748838203965436</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1209588587458016</v>
+        <v>0.1219837053109428</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2378228865742089</v>
+        <v>0.2452062018469066</v>
       </c>
     </row>
     <row r="18">
@@ -2534,19 +2534,19 @@
         <v>46500</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>35981</v>
+        <v>35494</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>60031</v>
+        <v>61101</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1792980567941128</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1387406767763136</v>
+        <v>0.1368635141378437</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2314755716001839</v>
+        <v>0.2355991215922196</v>
       </c>
     </row>
     <row r="20">
@@ -2563,19 +2563,19 @@
         <v>85733</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>71780</v>
+        <v>69911</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>102666</v>
+        <v>101992</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3305779123289187</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2767788272178864</v>
+        <v>0.2695710573140249</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.39587187865066</v>
+        <v>0.3932727902668037</v>
       </c>
     </row>
     <row r="21">
@@ -2592,19 +2592,19 @@
         <v>71613</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>56933</v>
+        <v>57748</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>85593</v>
+        <v>88550</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2761318538351862</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2195294285723322</v>
+        <v>0.222670869391938</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3300377296438902</v>
+        <v>0.3414426517185415</v>
       </c>
     </row>
     <row r="22">
@@ -2621,19 +2621,19 @@
         <v>55497</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>42163</v>
+        <v>41853</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>69161</v>
+        <v>68404</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2139921770417823</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.162576840998623</v>
+        <v>0.1613826269567977</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2666772607054293</v>
+        <v>0.2637613959839004</v>
       </c>
     </row>
     <row r="23">
@@ -2683,19 +2683,19 @@
         <v>18872</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>11958</v>
+        <v>11106</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>28414</v>
+        <v>28572</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1380920257747705</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.08749822867558316</v>
+        <v>0.08126276473645126</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.207912139907582</v>
+        <v>0.2090698949432659</v>
       </c>
     </row>
     <row r="25">
@@ -2712,19 +2712,19 @@
         <v>50806</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>39625</v>
+        <v>39212</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>62385</v>
+        <v>62156</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3717593530827166</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2899411584403301</v>
+        <v>0.286926078749548</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4564819397790322</v>
+        <v>0.4548117126289138</v>
       </c>
     </row>
     <row r="26">
@@ -2741,19 +2741,19 @@
         <v>43272</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>33388</v>
+        <v>32933</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>54494</v>
+        <v>55952</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3166298598882215</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2443068840921522</v>
+        <v>0.2409755315708892</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3987471922907683</v>
+        <v>0.4094119703311183</v>
       </c>
     </row>
     <row r="27">
@@ -2770,19 +2770,19 @@
         <v>23714</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>15281</v>
+        <v>16088</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>33987</v>
+        <v>34882</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1735187612542914</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1118132760770792</v>
+        <v>0.117722125871439</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2486890023366584</v>
+        <v>0.2552402419917997</v>
       </c>
     </row>
     <row r="28">
@@ -2832,19 +2832,19 @@
         <v>40626</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>31033</v>
+        <v>29880</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>53617</v>
+        <v>52018</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2662265497229284</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.203364774016815</v>
+        <v>0.1958090156411743</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3513581446748409</v>
+        <v>0.3408831913864446</v>
       </c>
     </row>
     <row r="30">
@@ -2861,19 +2861,19 @@
         <v>58085</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>46369</v>
+        <v>46974</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>70502</v>
+        <v>70381</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3806415138859894</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3038651977222664</v>
+        <v>0.3078301711941604</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4620109359269529</v>
+        <v>0.4612188149858217</v>
       </c>
     </row>
     <row r="31">
@@ -2890,19 +2890,19 @@
         <v>33850</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>24339</v>
+        <v>24363</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>45642</v>
+        <v>45717</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2218219148002773</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1594997338897794</v>
+        <v>0.1596561133996316</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2990971132386931</v>
+        <v>0.2995900152036943</v>
       </c>
     </row>
     <row r="32">
@@ -2919,19 +2919,19 @@
         <v>20038</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>13193</v>
+        <v>12789</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>28127</v>
+        <v>29215</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.131310021590805</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0864569889145403</v>
+        <v>0.08381062506538792</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1843207861774486</v>
+        <v>0.1914487919027869</v>
       </c>
     </row>
     <row r="33">
@@ -2981,19 +2981,19 @@
         <v>92492</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>75429</v>
+        <v>76186</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>110715</v>
+        <v>113802</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2109882357429736</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1720640537324142</v>
+        <v>0.1737917731381285</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2525583187099898</v>
+        <v>0.259599533744132</v>
       </c>
     </row>
     <row r="35">
@@ -3010,19 +3010,19 @@
         <v>150691</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>130500</v>
+        <v>129240</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>171854</v>
+        <v>170000</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.3437486626264779</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2976904234201005</v>
+        <v>0.2948159286550613</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3920241021338717</v>
+        <v>0.3877960697769329</v>
       </c>
     </row>
     <row r="36">
@@ -3039,19 +3039,19 @@
         <v>114871</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>94791</v>
+        <v>98210</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>135500</v>
+        <v>136247</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.262039171230261</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2162332459400414</v>
+        <v>0.224032650886043</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3090967099995426</v>
+        <v>0.3108011280149507</v>
       </c>
     </row>
     <row r="37">
@@ -3068,19 +3068,19 @@
         <v>80321</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>64103</v>
+        <v>64927</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>98037</v>
+        <v>99493</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1832239304002875</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1462277543050725</v>
+        <v>0.1481086535432704</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2236368046260401</v>
+        <v>0.2269588286937826</v>
       </c>
     </row>
     <row r="38">
@@ -3130,19 +3130,19 @@
         <v>102666</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>85750</v>
+        <v>86884</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>121946</v>
+        <v>122426</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.1936026064860551</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1617036392725029</v>
+        <v>0.1638416998097429</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2299610359405497</v>
+        <v>0.2308649624284771</v>
       </c>
     </row>
     <row r="40">
@@ -3159,19 +3159,19 @@
         <v>199780</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>179426</v>
+        <v>178841</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>221569</v>
+        <v>224231</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.3767358558661071</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.3383532148430721</v>
+        <v>0.3372515086669207</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.4178252546624569</v>
+        <v>0.4228452691089239</v>
       </c>
     </row>
     <row r="41">
@@ -3188,19 +3188,19 @@
         <v>142026</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>121985</v>
+        <v>120688</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>162915</v>
+        <v>162608</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2678267518442453</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.230034112832229</v>
+        <v>0.2275891045265027</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3072172204742323</v>
+        <v>0.306639211864469</v>
       </c>
     </row>
     <row r="42">
@@ -3217,19 +3217,19 @@
         <v>85820</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>68742</v>
+        <v>69819</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>105766</v>
+        <v>104065</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1618347858035925</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1296311223454638</v>
+        <v>0.1316615587499593</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1994496280583863</v>
+        <v>0.1962421058675564</v>
       </c>
     </row>
     <row r="43">
@@ -3279,19 +3279,19 @@
         <v>446289</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>407035</v>
+        <v>407493</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>482690</v>
+        <v>485637</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1948924972432961</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1777502841369793</v>
+        <v>0.1779503595175504</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2107887756466807</v>
+        <v>0.2120754504530567</v>
       </c>
     </row>
     <row r="45">
@@ -3308,19 +3308,19 @@
         <v>790350</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>738455</v>
+        <v>741710</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>835961</v>
+        <v>835344</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.3451422706086662</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.3224799171714019</v>
+        <v>0.3239015103063673</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.3650607487862932</v>
+        <v>0.3647910445215047</v>
       </c>
     </row>
     <row r="46">
@@ -3337,19 +3337,19 @@
         <v>638729</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>592392</v>
+        <v>593527</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>682211</v>
+        <v>683076</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.2789302878226556</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.2586951451044591</v>
+        <v>0.2591908314956755</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.2979186387349765</v>
+        <v>0.2982962546024898</v>
       </c>
     </row>
     <row r="47">
@@ -3366,19 +3366,19 @@
         <v>414556</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>378484</v>
+        <v>376927</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>455363</v>
+        <v>455811</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1810349443253821</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1652822547049987</v>
+        <v>0.1646023118769306</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1988551270479106</v>
+        <v>0.1990505392402565</v>
       </c>
     </row>
     <row r="48">
@@ -3550,19 +3550,19 @@
         <v>36152</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>24795</v>
+        <v>26506</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>47656</v>
+        <v>47769</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1782586165979509</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1222581948504902</v>
+        <v>0.1306939008706238</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2349833066530557</v>
+        <v>0.2355415116804039</v>
       </c>
     </row>
     <row r="5">
@@ -3579,19 +3579,19 @@
         <v>75507</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>63143</v>
+        <v>61702</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>90019</v>
+        <v>90914</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3723120784171591</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3113465849657798</v>
+        <v>0.3042375443607752</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4438663637862477</v>
+        <v>0.4482770635515501</v>
       </c>
     </row>
     <row r="6">
@@ -3608,19 +3608,19 @@
         <v>56023</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>44231</v>
+        <v>43261</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>68935</v>
+        <v>69280</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2762392169436173</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2180940639579947</v>
+        <v>0.2133102428998157</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3399024083403448</v>
+        <v>0.3416067007677508</v>
       </c>
     </row>
     <row r="7">
@@ -3637,19 +3637,19 @@
         <v>35124</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>24882</v>
+        <v>25905</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45539</v>
+        <v>46986</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1731900880412727</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1226896947796811</v>
+        <v>0.1277323084333182</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2245456142558362</v>
+        <v>0.2316761325639251</v>
       </c>
     </row>
     <row r="8">
@@ -3699,19 +3699,19 @@
         <v>88153</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>71114</v>
+        <v>70563</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>106583</v>
+        <v>106742</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2294662024833246</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1851127477614937</v>
+        <v>0.1836802977038703</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2774414457341371</v>
+        <v>0.2778541141827797</v>
       </c>
     </row>
     <row r="10">
@@ -3728,19 +3728,19 @@
         <v>182623</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>165439</v>
+        <v>162694</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>203821</v>
+        <v>201733</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4753764700002296</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4306461357187731</v>
+        <v>0.4235021443800064</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5305573981035445</v>
+        <v>0.5251215450042778</v>
       </c>
     </row>
     <row r="11">
@@ -3757,19 +3757,19 @@
         <v>72328</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>57101</v>
+        <v>58794</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>87287</v>
+        <v>90366</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1882750413461282</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1486360627244235</v>
+        <v>0.1530433724671164</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2272129137385601</v>
+        <v>0.2352269358140423</v>
       </c>
     </row>
     <row r="12">
@@ -3786,19 +3786,19 @@
         <v>41060</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>30346</v>
+        <v>29051</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>54857</v>
+        <v>54054</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1068822861703175</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07899239489014045</v>
+        <v>0.07562151128413006</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.14279524702013</v>
+        <v>0.1407055092282096</v>
       </c>
     </row>
     <row r="13">
@@ -3848,19 +3848,19 @@
         <v>75644</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>60915</v>
+        <v>61396</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>91562</v>
+        <v>91245</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2895571594519459</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2331775947053993</v>
+        <v>0.2350171777279231</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3504897225959178</v>
+        <v>0.3492797062464428</v>
       </c>
     </row>
     <row r="15">
@@ -3877,19 +3877,19 @@
         <v>113194</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>97927</v>
+        <v>97689</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>129869</v>
+        <v>129445</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.4332954623330166</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3748571995685001</v>
+        <v>0.3739460880024654</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4971260328201588</v>
+        <v>0.4955047781423612</v>
       </c>
     </row>
     <row r="16">
@@ -3906,19 +3906,19 @@
         <v>46297</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>34777</v>
+        <v>35292</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>59877</v>
+        <v>59927</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1772194443971718</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.133121537120834</v>
+        <v>0.1350939546285629</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2292041946918647</v>
+        <v>0.2293958131740541</v>
       </c>
     </row>
     <row r="17">
@@ -3935,19 +3935,19 @@
         <v>26105</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>17686</v>
+        <v>18255</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>35543</v>
+        <v>37246</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0999279338178657</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06770162861778115</v>
+        <v>0.06988023905042885</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1360538186101491</v>
+        <v>0.1425751625031327</v>
       </c>
     </row>
     <row r="18">
@@ -3997,19 +3997,19 @@
         <v>55526</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>41355</v>
+        <v>42142</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>68585</v>
+        <v>69760</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2057391164396537</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1532301017788567</v>
+        <v>0.1561485830926171</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2541230826810911</v>
+        <v>0.2584773346758886</v>
       </c>
     </row>
     <row r="20">
@@ -4026,19 +4026,19 @@
         <v>104702</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>89109</v>
+        <v>87571</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>121425</v>
+        <v>121397</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3879486906817097</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3301711476253536</v>
+        <v>0.3244716748584512</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4499110217089933</v>
+        <v>0.4498073403585711</v>
       </c>
     </row>
     <row r="21">
@@ -4055,19 +4055,19 @@
         <v>70879</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>57526</v>
+        <v>56711</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>86505</v>
+        <v>85807</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2626229938921977</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2131471498930357</v>
+        <v>0.210129054658958</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3205244390164383</v>
+        <v>0.3179384394179451</v>
       </c>
     </row>
     <row r="22">
@@ -4084,19 +4084,19 @@
         <v>38780</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>28059</v>
+        <v>28093</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>50093</v>
+        <v>51781</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1436891989864389</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1039644036970883</v>
+        <v>0.1040917016594516</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1856063890997923</v>
+        <v>0.191862609541472</v>
       </c>
     </row>
     <row r="23">
@@ -4146,19 +4146,19 @@
         <v>16818</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10690</v>
+        <v>10614</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>24861</v>
+        <v>25128</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1776174262191013</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1128999935781431</v>
+        <v>0.1120946026044859</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2625542672720277</v>
+        <v>0.2653768390386088</v>
       </c>
     </row>
     <row r="25">
@@ -4175,19 +4175,19 @@
         <v>47659</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>37986</v>
+        <v>38328</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>56523</v>
+        <v>56467</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5033226049663111</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4011606962572826</v>
+        <v>0.4047808544521587</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5969379700679904</v>
+        <v>0.5963421782525798</v>
       </c>
     </row>
     <row r="26">
@@ -4204,19 +4204,19 @@
         <v>22332</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>15191</v>
+        <v>15533</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>31048</v>
+        <v>31522</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2358433901200269</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1604327992723223</v>
+        <v>0.1640410512113267</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3278917092696974</v>
+        <v>0.3329045757610999</v>
       </c>
     </row>
     <row r="27">
@@ -4233,19 +4233,19 @@
         <v>7880</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3767</v>
+        <v>3484</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>14977</v>
+        <v>14526</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.08321657869456073</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.03978799450608336</v>
+        <v>0.03679086208317414</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1581668052691787</v>
+        <v>0.1534032652994183</v>
       </c>
     </row>
     <row r="28">
@@ -4295,19 +4295,19 @@
         <v>17242</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>10835</v>
+        <v>10668</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>24755</v>
+        <v>25446</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2748028725888501</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1726910883336298</v>
+        <v>0.1700229519952652</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3945527397277179</v>
+        <v>0.4055709511629484</v>
       </c>
     </row>
     <row r="30">
@@ -4324,19 +4324,19 @@
         <v>29868</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>22219</v>
+        <v>22441</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>37442</v>
+        <v>38205</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.4760377250032839</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3541392202452933</v>
+        <v>0.3576659284309586</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.596765329290273</v>
+        <v>0.608915967848253</v>
       </c>
     </row>
     <row r="31">
@@ -4353,19 +4353,19 @@
         <v>10736</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>5673</v>
+        <v>5806</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>17034</v>
+        <v>17656</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1711065520206835</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.09041476275121992</v>
+        <v>0.09253796212005699</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2714849912020418</v>
+        <v>0.2814088444095889</v>
       </c>
     </row>
     <row r="32">
@@ -4382,19 +4382,19 @@
         <v>4897</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1875</v>
+        <v>1736</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>9941</v>
+        <v>9887</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.07805285038718258</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02988289644983104</v>
+        <v>0.02766595194523983</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1584466994712318</v>
+        <v>0.1575750560813858</v>
       </c>
     </row>
     <row r="33">
@@ -4444,19 +4444,19 @@
         <v>102633</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>85334</v>
+        <v>85194</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>119987</v>
+        <v>122408</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2442491183835015</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2030804538018273</v>
+        <v>0.2027493128519097</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2855498682427648</v>
+        <v>0.2913106993394011</v>
       </c>
     </row>
     <row r="35">
@@ -4473,19 +4473,19 @@
         <v>171465</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>150906</v>
+        <v>151080</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>190739</v>
+        <v>192292</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.408059416899027</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.3591321967769888</v>
+        <v>0.3595473615263056</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.4539282477482471</v>
+        <v>0.4576249703270988</v>
       </c>
     </row>
     <row r="36">
@@ -4502,19 +4502,19 @@
         <v>91494</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>76498</v>
+        <v>74849</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>110314</v>
+        <v>109481</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2177420380156995</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1820525082635215</v>
+        <v>0.1781281030227996</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2625292496339902</v>
+        <v>0.2605480293100353</v>
       </c>
     </row>
     <row r="37">
@@ -4531,19 +4531,19 @@
         <v>54604</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>41174</v>
+        <v>40677</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>69763</v>
+        <v>69080</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.129949426701772</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.09798708480665348</v>
+        <v>0.09680394576125677</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1660260412697926</v>
+        <v>0.1644000364584911</v>
       </c>
     </row>
     <row r="38">
@@ -4593,19 +4593,19 @@
         <v>138760</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>117307</v>
+        <v>119484</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>160284</v>
+        <v>161517</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.2553728240709316</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.2158912182532831</v>
+        <v>0.2198966067425384</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2949851029533576</v>
+        <v>0.2972550069273336</v>
       </c>
     </row>
     <row r="40">
@@ -4622,19 +4622,19 @@
         <v>206180</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>182647</v>
+        <v>182696</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>230603</v>
+        <v>229855</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.3794516086550929</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.3361419838481435</v>
+        <v>0.3362316878821934</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.4243999879050263</v>
+        <v>0.4230229757271621</v>
       </c>
     </row>
     <row r="41">
@@ -4651,19 +4651,19 @@
         <v>124152</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>105738</v>
+        <v>104106</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>146112</v>
+        <v>143390</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2284879590704295</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.194598524092575</v>
+        <v>0.1915964809547585</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2689028015067463</v>
+        <v>0.2638939216150745</v>
       </c>
     </row>
     <row r="42">
@@ -4680,19 +4680,19 @@
         <v>74271</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>57485</v>
+        <v>59071</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>93441</v>
+        <v>90384</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1366876082035459</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1057945048052709</v>
+        <v>0.1087138621985911</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1719675259036995</v>
+        <v>0.1663422222345597</v>
       </c>
     </row>
     <row r="43">
@@ -4742,19 +4742,19 @@
         <v>530927</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>488565</v>
+        <v>488244</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>569256</v>
+        <v>572325</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2371178102170344</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2181981970597755</v>
+        <v>0.2180548896271747</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2542358482793081</v>
+        <v>0.2556066306937591</v>
       </c>
     </row>
     <row r="45">
@@ -4771,19 +4771,19 @@
         <v>931197</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>883562</v>
+        <v>880120</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>979581</v>
+        <v>980574</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.4158826986131929</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.3946083140207663</v>
+        <v>0.3930710532400413</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.437491455616569</v>
+        <v>0.4379350264934866</v>
       </c>
     </row>
     <row r="46">
@@ -4800,19 +4800,19 @@
         <v>494240</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>457437</v>
+        <v>457038</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>536234</v>
+        <v>535136</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.2207330563461365</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.2042961805959334</v>
+        <v>0.2041180697179382</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.2394880524838458</v>
+        <v>0.2389977301814605</v>
       </c>
     </row>
     <row r="47">
@@ -4829,19 +4829,19 @@
         <v>282721</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>253162</v>
+        <v>252879</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>317486</v>
+        <v>317346</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1262664348236361</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1130650397369679</v>
+        <v>0.1129385610467744</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1417926589590569</v>
+        <v>0.1417302631037913</v>
       </c>
     </row>
     <row r="48">
@@ -5013,19 +5013,19 @@
         <v>66601</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>56713</v>
+        <v>57961</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>76741</v>
+        <v>78305</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.3650270342715659</v>
+        <v>0.3650270342715658</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3108351455719304</v>
+        <v>0.3176736229807781</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4206059965602996</v>
+        <v>0.4291767247104674</v>
       </c>
     </row>
     <row r="5">
@@ -5042,19 +5042,19 @@
         <v>71727</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>62001</v>
+        <v>60560</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>81695</v>
+        <v>81771</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3931225647696399</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3398159947747999</v>
+        <v>0.3319196418562095</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4477569350927033</v>
+        <v>0.4481733056215567</v>
       </c>
     </row>
     <row r="6">
@@ -5071,19 +5071,19 @@
         <v>19020</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13286</v>
+        <v>13337</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>26567</v>
+        <v>25368</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1042451432821887</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.07281587876691803</v>
+        <v>0.07309622707534459</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1456083630430602</v>
+        <v>0.1390355939696152</v>
       </c>
     </row>
     <row r="7">
@@ -5100,19 +5100,19 @@
         <v>25107</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18470</v>
+        <v>18012</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>33113</v>
+        <v>32669</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1376052576766056</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1012331742945558</v>
+        <v>0.09871954987554096</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1814853231676609</v>
+        <v>0.1790529667497704</v>
       </c>
     </row>
     <row r="8">
@@ -5162,19 +5162,19 @@
         <v>96526</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>83018</v>
+        <v>81994</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>109639</v>
+        <v>109379</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.399295012682404</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3434169304959472</v>
+        <v>0.3391786027568794</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4535381166970315</v>
+        <v>0.4524632264149331</v>
       </c>
     </row>
     <row r="10">
@@ -5191,19 +5191,19 @@
         <v>80709</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>67576</v>
+        <v>66800</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>94516</v>
+        <v>93507</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3338625148399652</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2795384858875516</v>
+        <v>0.276325823071192</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3909783774880358</v>
+        <v>0.3868046003728385</v>
       </c>
     </row>
     <row r="11">
@@ -5220,19 +5220,19 @@
         <v>36743</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>27450</v>
+        <v>27455</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>48056</v>
+        <v>47770</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1519934003326771</v>
+        <v>0.1519934003326772</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1135503604635434</v>
+        <v>0.1135723784700361</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1987896780208464</v>
+        <v>0.1976092686147558</v>
       </c>
     </row>
     <row r="12">
@@ -5249,19 +5249,19 @@
         <v>27764</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>19377</v>
+        <v>19288</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>38565</v>
+        <v>37611</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1148490721449536</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08015527313253984</v>
+        <v>0.07978739788006822</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1595275500241741</v>
+        <v>0.1555834033803184</v>
       </c>
     </row>
     <row r="13">
@@ -5311,19 +5311,19 @@
         <v>61495</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>51515</v>
+        <v>51780</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>71626</v>
+        <v>71860</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3830809021286832</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3209073149710326</v>
+        <v>0.32255975238143</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4461881190693159</v>
+        <v>0.4476457030154847</v>
       </c>
     </row>
     <row r="15">
@@ -5340,19 +5340,19 @@
         <v>45483</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>37030</v>
+        <v>37046</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>55035</v>
+        <v>54841</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2833311833668448</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2306793651421455</v>
+        <v>0.2307755613591499</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3428354680879062</v>
+        <v>0.3416275171194286</v>
       </c>
     </row>
     <row r="16">
@@ -5369,19 +5369,19 @@
         <v>27098</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>19684</v>
+        <v>19719</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>36069</v>
+        <v>35060</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.168802561060723</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1226188277356144</v>
+        <v>0.1228387811574336</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2246896285487852</v>
+        <v>0.2184040505768159</v>
       </c>
     </row>
     <row r="17">
@@ -5398,19 +5398,19 @@
         <v>26453</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>19748</v>
+        <v>19103</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>35737</v>
+        <v>35096</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1647853534437489</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.123020780094292</v>
+        <v>0.1190032632584227</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2226220262869381</v>
+        <v>0.2186263908451562</v>
       </c>
     </row>
     <row r="18">
@@ -5460,19 +5460,19 @@
         <v>79198</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>67523</v>
+        <v>67235</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>91971</v>
+        <v>91918</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3796642327916701</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3236959211347443</v>
+        <v>0.3223154534843494</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4408951578686244</v>
+        <v>0.4406398730523144</v>
       </c>
     </row>
     <row r="20">
@@ -5489,19 +5489,19 @@
         <v>64827</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>52730</v>
+        <v>52031</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>76877</v>
+        <v>76685</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3107704610358401</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2527774885812488</v>
+        <v>0.2494262027346048</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3685361939365588</v>
+        <v>0.3676174202780376</v>
       </c>
     </row>
     <row r="21">
@@ -5518,19 +5518,19 @@
         <v>36425</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>26986</v>
+        <v>26901</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>48539</v>
+        <v>47950</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1746158714209646</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1293666479164754</v>
+        <v>0.1289583737905502</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2326893861118002</v>
+        <v>0.229864856484886</v>
       </c>
     </row>
     <row r="22">
@@ -5547,19 +5547,19 @@
         <v>28151</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>20674</v>
+        <v>20365</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>39211</v>
+        <v>37674</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1349494347515252</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09910904230452336</v>
+        <v>0.09762543444230011</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1879730966926687</v>
+        <v>0.1806055207507058</v>
       </c>
     </row>
     <row r="23">
@@ -5609,19 +5609,19 @@
         <v>14328</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10172</v>
+        <v>10589</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>18863</v>
+        <v>18751</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2215820230989325</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1573172266799485</v>
+        <v>0.1637563006554584</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2917137710151844</v>
+        <v>0.2899945458985742</v>
       </c>
     </row>
     <row r="25">
@@ -5638,19 +5638,19 @@
         <v>28043</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>22915</v>
+        <v>22755</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>33251</v>
+        <v>33001</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.4336967892789966</v>
+        <v>0.4336967892789967</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3543940800089445</v>
+        <v>0.3519078027719207</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5142434642770721</v>
+        <v>0.510370974944635</v>
       </c>
     </row>
     <row r="26">
@@ -5667,19 +5667,19 @@
         <v>16672</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>12128</v>
+        <v>12398</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>21858</v>
+        <v>21657</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2578369381431627</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1875599276532704</v>
+        <v>0.1917437636525814</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.338044582264271</v>
+        <v>0.3349324472579646</v>
       </c>
     </row>
     <row r="27">
@@ -5696,19 +5696,19 @@
         <v>5618</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3086</v>
+        <v>2997</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>9145</v>
+        <v>9092</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.08688424947890809</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.04772909806875982</v>
+        <v>0.04635478212914493</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1414260113867985</v>
+        <v>0.1406171476720162</v>
       </c>
     </row>
     <row r="28">
@@ -5758,19 +5758,19 @@
         <v>22081</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>16589</v>
+        <v>17441</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>28379</v>
+        <v>28738</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2483252910393995</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1865588784518823</v>
+        <v>0.1961415204226108</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3191502137183018</v>
+        <v>0.3231839829242247</v>
       </c>
     </row>
     <row r="30">
@@ -5787,19 +5787,19 @@
         <v>31940</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>25632</v>
+        <v>24898</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>38774</v>
+        <v>38599</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3591993652711005</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2882588662541013</v>
+        <v>0.2800076346318899</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4360550191312207</v>
+        <v>0.4340887720734781</v>
       </c>
     </row>
     <row r="31">
@@ -5816,19 +5816,19 @@
         <v>25957</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>19881</v>
+        <v>19517</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>32761</v>
+        <v>32683</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.2919172364758168</v>
+        <v>0.2919172364758169</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.223579691908591</v>
+        <v>0.219486893303851</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3684329303167341</v>
+        <v>0.3675507824223888</v>
       </c>
     </row>
     <row r="32">
@@ -5845,19 +5845,19 @@
         <v>8942</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>5488</v>
+        <v>5479</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>14089</v>
+        <v>14202</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1005581072136831</v>
+        <v>0.1005581072136832</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0617228498373529</v>
+        <v>0.06162194847719682</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1584457848871677</v>
+        <v>0.1597149787246968</v>
       </c>
     </row>
     <row r="33">
@@ -5907,19 +5907,19 @@
         <v>86308</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>73224</v>
+        <v>73861</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>101772</v>
+        <v>101355</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2205511409277647</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1871175250815681</v>
+        <v>0.1887442961469014</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2600697594399716</v>
+        <v>0.2590026713456068</v>
       </c>
     </row>
     <row r="35">
@@ -5936,19 +5936,19 @@
         <v>109625</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>93947</v>
+        <v>93845</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>126898</v>
+        <v>126274</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2801378287492707</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2400728382543084</v>
+        <v>0.2398122672420898</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3242760985010389</v>
+        <v>0.3226805767888664</v>
       </c>
     </row>
     <row r="36">
@@ -5965,19 +5965,19 @@
         <v>110537</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>94013</v>
+        <v>94851</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>127111</v>
+        <v>128130</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2824664356888731</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2402410803896443</v>
+        <v>0.2423819233030226</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3248211723060779</v>
+        <v>0.3274233603754877</v>
       </c>
     </row>
     <row r="37">
@@ -5994,19 +5994,19 @@
         <v>84857</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>69895</v>
+        <v>69081</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>100892</v>
+        <v>100467</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2168445946340914</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1786097358589994</v>
+        <v>0.1765292405924157</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2578214220150536</v>
+        <v>0.2567335185231058</v>
       </c>
     </row>
     <row r="38">
@@ -6056,19 +6056,19 @@
         <v>51983</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>42098</v>
+        <v>42626</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>62237</v>
+        <v>62633</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.1953493186520047</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1581993311414757</v>
+        <v>0.1601862485906202</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2338826906944682</v>
+        <v>0.2353689737155518</v>
       </c>
     </row>
     <row r="40">
@@ -6085,19 +6085,19 @@
         <v>113577</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>100487</v>
+        <v>99137</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>126506</v>
+        <v>126364</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.4268133919901317</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.3776227862440512</v>
+        <v>0.3725474763304348</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.475397796629142</v>
+        <v>0.4748636427884347</v>
       </c>
     </row>
     <row r="41">
@@ -6114,19 +6114,19 @@
         <v>77657</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>65937</v>
+        <v>65175</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>91285</v>
+        <v>90230</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2918278400448304</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2477851455805394</v>
+        <v>0.2449216348515564</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3430421473217546</v>
+        <v>0.3390759111622837</v>
       </c>
     </row>
     <row r="42">
@@ -6143,19 +6143,19 @@
         <v>22888</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>15551</v>
+        <v>15446</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>31546</v>
+        <v>31881</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.08600944931303339</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.05843868757139545</v>
+        <v>0.058046048368106</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1185470647994742</v>
+        <v>0.1198047871974899</v>
       </c>
     </row>
     <row r="43">
@@ -6205,19 +6205,19 @@
         <v>478520</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>451018</v>
+        <v>449537</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>510135</v>
+        <v>511239</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2982666287554234</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2811242626675721</v>
+        <v>0.2802006789194221</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.3179720714375642</v>
+        <v>0.3186604656107699</v>
       </c>
     </row>
     <row r="45">
@@ -6234,19 +6234,19 @@
         <v>545931</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>513887</v>
+        <v>514521</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>577128</v>
+        <v>580668</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.3402842634971081</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.3203111659076128</v>
+        <v>0.3207063287416353</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.3597298455247792</v>
+        <v>0.3619360014752174</v>
       </c>
     </row>
     <row r="46">
@@ -6263,19 +6263,19 @@
         <v>350108</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>322463</v>
+        <v>322446</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>378392</v>
+        <v>381804</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.2182261352880227</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.2009946954468392</v>
+        <v>0.2009835609515069</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.2358552927737451</v>
+        <v>0.2379825587340045</v>
       </c>
     </row>
     <row r="47">
@@ -6292,19 +6292,19 @@
         <v>229778</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>208475</v>
+        <v>206933</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>254744</v>
+        <v>255412</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>0.1432229724594457</v>
+        <v>0.1432229724594458</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1299445527062253</v>
+        <v>0.1289835216721252</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1587843918181361</v>
+        <v>0.1592005689231437</v>
       </c>
     </row>
     <row r="48">
